--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il16-Grin2d.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il16-Grin2d.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.473752</v>
+        <v>3.648214333333333</v>
       </c>
       <c r="H2">
-        <v>10.421256</v>
+        <v>10.944643</v>
       </c>
       <c r="I2">
-        <v>0.2912886159317403</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="J2">
-        <v>0.2912886159317402</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.105407</v>
+        <v>0.1793826666666667</v>
       </c>
       <c r="N2">
-        <v>0.316221</v>
+        <v>0.5381480000000001</v>
       </c>
       <c r="O2">
-        <v>0.04346937942302837</v>
+        <v>0.06606851409560997</v>
       </c>
       <c r="P2">
-        <v>0.04346937942302836</v>
+        <v>0.06606851409560997</v>
       </c>
       <c r="Q2">
-        <v>0.366157777064</v>
+        <v>0.6544264156848889</v>
       </c>
       <c r="R2">
-        <v>3.295419993576</v>
+        <v>5.889837741164</v>
       </c>
       <c r="S2">
-        <v>0.0126621353675456</v>
+        <v>0.009501860668802735</v>
       </c>
       <c r="T2">
-        <v>0.0126621353675456</v>
+        <v>0.009501860668802731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.473752</v>
+        <v>3.648214333333333</v>
       </c>
       <c r="H3">
-        <v>10.421256</v>
+        <v>10.944643</v>
       </c>
       <c r="I3">
-        <v>0.2912886159317403</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="J3">
-        <v>0.2912886159317402</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.148302999999999</v>
       </c>
       <c r="O3">
-        <v>0.8451776318294596</v>
+        <v>0.7548281205534184</v>
       </c>
       <c r="P3">
-        <v>0.8451776318294596</v>
+        <v>0.7548281205534184</v>
       </c>
       <c r="Q3">
-        <v>7.119226614285332</v>
+        <v>7.47677571009211</v>
       </c>
       <c r="R3">
-        <v>64.07303952856799</v>
+        <v>67.29098139082899</v>
       </c>
       <c r="S3">
-        <v>0.2461906225920692</v>
+        <v>0.1085580889561642</v>
       </c>
       <c r="T3">
-        <v>0.2461906225920692</v>
+        <v>0.1085580889561642</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.473752</v>
+        <v>3.648214333333333</v>
       </c>
       <c r="H4">
-        <v>10.421256</v>
+        <v>10.944643</v>
       </c>
       <c r="I4">
-        <v>0.2912886159317403</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="J4">
-        <v>0.2912886159317402</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02890133333333333</v>
+        <v>0.1059526666666667</v>
       </c>
       <c r="N4">
-        <v>0.086704</v>
+        <v>0.317858</v>
       </c>
       <c r="O4">
-        <v>0.01191878171751481</v>
+        <v>0.0390234763548362</v>
       </c>
       <c r="P4">
-        <v>0.01191878171751481</v>
+        <v>0.0390234763548362</v>
       </c>
       <c r="Q4">
-        <v>0.1003960644693333</v>
+        <v>0.3865380371882222</v>
       </c>
       <c r="R4">
-        <v>0.903564580224</v>
+        <v>3.478842334693999</v>
       </c>
       <c r="S4">
-        <v>0.00347180543008742</v>
+        <v>0.00561228960892598</v>
       </c>
       <c r="T4">
-        <v>0.003471805430087419</v>
+        <v>0.005612289608925979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.473752</v>
+        <v>3.648214333333333</v>
       </c>
       <c r="H5">
-        <v>10.421256</v>
+        <v>10.944643</v>
       </c>
       <c r="I5">
-        <v>0.2912886159317403</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="J5">
-        <v>0.2912886159317402</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.222203</v>
+        <v>0.3017286666666667</v>
       </c>
       <c r="N5">
-        <v>0.6666090000000001</v>
+        <v>0.905186</v>
       </c>
       <c r="O5">
-        <v>0.0916355319469786</v>
+        <v>0.1111298267393892</v>
       </c>
       <c r="P5">
-        <v>0.0916355319469786</v>
+        <v>0.1111298267393892</v>
       </c>
       <c r="Q5">
-        <v>0.7718781156560001</v>
+        <v>1.100770846510889</v>
       </c>
       <c r="R5">
-        <v>6.946903040904001</v>
+        <v>9.906937618598</v>
       </c>
       <c r="S5">
-        <v>0.02669238727100417</v>
+        <v>0.01598250156341912</v>
       </c>
       <c r="T5">
-        <v>0.02669238727100416</v>
+        <v>0.01598250156341911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.473752</v>
+        <v>3.648214333333333</v>
       </c>
       <c r="H6">
-        <v>10.421256</v>
+        <v>10.944643</v>
       </c>
       <c r="I6">
-        <v>0.2912886159317403</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="J6">
-        <v>0.2912886159317402</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01891066666666667</v>
+        <v>0.07860233333333334</v>
       </c>
       <c r="N6">
-        <v>0.056732</v>
+        <v>0.235807</v>
       </c>
       <c r="O6">
-        <v>0.007798675083018666</v>
+        <v>0.02895006225674629</v>
       </c>
       <c r="P6">
-        <v>0.007798675083018665</v>
+        <v>0.02895006225674629</v>
       </c>
       <c r="Q6">
-        <v>0.06569096615466667</v>
+        <v>0.2867581591001112</v>
       </c>
       <c r="R6">
-        <v>0.591218695392</v>
+        <v>2.580823431901</v>
       </c>
       <c r="S6">
-        <v>0.002271665271033857</v>
+        <v>0.004163548426693709</v>
       </c>
       <c r="T6">
-        <v>0.002271665271033856</v>
+        <v>0.004163548426693709</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>3.016808666666666</v>
       </c>
       <c r="H7">
-        <v>9.050425999999998</v>
+        <v>9.050426</v>
       </c>
       <c r="I7">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="J7">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.105407</v>
+        <v>0.1793826666666667</v>
       </c>
       <c r="N7">
-        <v>0.316221</v>
+        <v>0.5381480000000001</v>
       </c>
       <c r="O7">
-        <v>0.04346937942302837</v>
+        <v>0.06606851409560997</v>
       </c>
       <c r="P7">
-        <v>0.04346937942302836</v>
+        <v>0.06606851409560997</v>
       </c>
       <c r="Q7">
-        <v>0.3179927511273333</v>
+        <v>0.5411631834497778</v>
       </c>
       <c r="R7">
-        <v>2.861934760146</v>
+        <v>4.870468651048</v>
       </c>
       <c r="S7">
-        <v>0.01099653622806639</v>
+        <v>0.007857349649989465</v>
       </c>
       <c r="T7">
-        <v>0.01099653622806639</v>
+        <v>0.007857349649989465</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>3.016808666666666</v>
       </c>
       <c r="H8">
-        <v>9.050425999999998</v>
+        <v>9.050426</v>
       </c>
       <c r="I8">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="J8">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>6.148302999999999</v>
       </c>
       <c r="O8">
-        <v>0.8451776318294596</v>
+        <v>0.7548281205534184</v>
       </c>
       <c r="P8">
-        <v>0.8451776318294596</v>
+        <v>0.7548281205534184</v>
       </c>
       <c r="Q8">
-        <v>6.18275125856422</v>
+        <v>6.182751258564221</v>
       </c>
       <c r="R8">
-        <v>55.64476132707798</v>
+        <v>55.64476132707799</v>
       </c>
       <c r="S8">
-        <v>0.213806283202663</v>
+        <v>0.08976966638374419</v>
       </c>
       <c r="T8">
-        <v>0.213806283202663</v>
+        <v>0.08976966638374419</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,43 +977,43 @@
         <v>3.016808666666666</v>
       </c>
       <c r="H9">
-        <v>9.050425999999998</v>
+        <v>9.050426</v>
       </c>
       <c r="I9">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="J9">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02890133333333333</v>
+        <v>0.1059526666666667</v>
       </c>
       <c r="N9">
-        <v>0.086704</v>
+        <v>0.317858</v>
       </c>
       <c r="O9">
-        <v>0.01191878171751481</v>
+        <v>0.0390234763548362</v>
       </c>
       <c r="P9">
-        <v>0.01191878171751481</v>
+        <v>0.0390234763548362</v>
       </c>
       <c r="Q9">
-        <v>0.08718979287822221</v>
+        <v>0.3196389230564444</v>
       </c>
       <c r="R9">
-        <v>0.7847081359039999</v>
+        <v>2.876750307508</v>
       </c>
       <c r="S9">
-        <v>0.003015118151919919</v>
+        <v>0.004640956474884885</v>
       </c>
       <c r="T9">
-        <v>0.003015118151919918</v>
+        <v>0.004640956474884885</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>3.016808666666666</v>
       </c>
       <c r="H10">
-        <v>9.050425999999998</v>
+        <v>9.050426</v>
       </c>
       <c r="I10">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="J10">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.222203</v>
+        <v>0.3017286666666667</v>
       </c>
       <c r="N10">
-        <v>0.6666090000000001</v>
+        <v>0.905186</v>
       </c>
       <c r="O10">
-        <v>0.0916355319469786</v>
+        <v>0.1111298267393892</v>
       </c>
       <c r="P10">
-        <v>0.0916355319469786</v>
+        <v>0.1111298267393892</v>
       </c>
       <c r="Q10">
-        <v>0.6703439361593333</v>
+        <v>0.9102576565817778</v>
       </c>
       <c r="R10">
-        <v>6.033095425433999</v>
+        <v>8.192318909236</v>
       </c>
       <c r="S10">
-        <v>0.02318122458171694</v>
+        <v>0.01321636966090251</v>
       </c>
       <c r="T10">
-        <v>0.02318122458171694</v>
+        <v>0.01321636966090251</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,43 +1101,43 @@
         <v>3.016808666666666</v>
       </c>
       <c r="H11">
-        <v>9.050425999999998</v>
+        <v>9.050426</v>
       </c>
       <c r="I11">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="J11">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.01891066666666667</v>
+        <v>0.07860233333333334</v>
       </c>
       <c r="N11">
-        <v>0.056732</v>
+        <v>0.235807</v>
       </c>
       <c r="O11">
-        <v>0.007798675083018666</v>
+        <v>0.02895006225674629</v>
       </c>
       <c r="P11">
-        <v>0.007798675083018665</v>
+        <v>0.02895006225674629</v>
       </c>
       <c r="Q11">
-        <v>0.05704986309244444</v>
+        <v>0.2371282004202222</v>
       </c>
       <c r="R11">
-        <v>0.5134487678319999</v>
+        <v>2.134153803782</v>
       </c>
       <c r="S11">
-        <v>0.001972846500677256</v>
+        <v>0.003442952587234489</v>
       </c>
       <c r="T11">
-        <v>0.001972846500677256</v>
+        <v>0.003442952587234489</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.631845666666667</v>
+        <v>10.36785533333333</v>
       </c>
       <c r="H12">
-        <v>4.895537</v>
+        <v>31.103566</v>
       </c>
       <c r="I12">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="J12">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.105407</v>
+        <v>0.1793826666666667</v>
       </c>
       <c r="N12">
-        <v>0.316221</v>
+        <v>0.5381480000000001</v>
       </c>
       <c r="O12">
-        <v>0.04346937942302837</v>
+        <v>0.06606851409560997</v>
       </c>
       <c r="P12">
-        <v>0.04346937942302836</v>
+        <v>0.06606851409560997</v>
       </c>
       <c r="Q12">
-        <v>0.1720079561863334</v>
+        <v>1.859813537307556</v>
       </c>
       <c r="R12">
-        <v>1.548071605677</v>
+        <v>16.738321835768</v>
       </c>
       <c r="S12">
-        <v>0.00594822276612609</v>
+        <v>0.0270033248626666</v>
       </c>
       <c r="T12">
-        <v>0.005948222766126088</v>
+        <v>0.0270033248626666</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.631845666666667</v>
+        <v>10.36785533333333</v>
       </c>
       <c r="H13">
-        <v>4.895537</v>
+        <v>31.103566</v>
       </c>
       <c r="I13">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="J13">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.148302999999999</v>
       </c>
       <c r="O13">
-        <v>0.8451776318294596</v>
+        <v>0.7548281205534184</v>
       </c>
       <c r="P13">
-        <v>0.8451776318294596</v>
+        <v>0.7548281205534184</v>
       </c>
       <c r="Q13">
-        <v>3.344360535967889</v>
+        <v>21.24823868316644</v>
       </c>
       <c r="R13">
-        <v>30.099244823711</v>
+        <v>191.234148148498</v>
       </c>
       <c r="S13">
-        <v>0.1156516356524118</v>
+        <v>0.3085110848002922</v>
       </c>
       <c r="T13">
-        <v>0.1156516356524118</v>
+        <v>0.3085110848002922</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.631845666666667</v>
+        <v>10.36785533333333</v>
       </c>
       <c r="H14">
-        <v>4.895537</v>
+        <v>31.103566</v>
       </c>
       <c r="I14">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="J14">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.02890133333333333</v>
+        <v>0.1059526666666667</v>
       </c>
       <c r="N14">
-        <v>0.086704</v>
+        <v>0.317858</v>
       </c>
       <c r="O14">
-        <v>0.01191878171751481</v>
+        <v>0.0390234763548362</v>
       </c>
       <c r="P14">
-        <v>0.01191878171751481</v>
+        <v>0.0390234763548362</v>
       </c>
       <c r="Q14">
-        <v>0.04716251556088889</v>
+        <v>1.098501920180889</v>
       </c>
       <c r="R14">
-        <v>0.424462640048</v>
+        <v>9.886517281627999</v>
       </c>
       <c r="S14">
-        <v>0.001630931237059513</v>
+        <v>0.01594955817767135</v>
       </c>
       <c r="T14">
-        <v>0.001630931237059513</v>
+        <v>0.01594955817767135</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.631845666666667</v>
+        <v>10.36785533333333</v>
       </c>
       <c r="H15">
-        <v>4.895537</v>
+        <v>31.103566</v>
       </c>
       <c r="I15">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="J15">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.222203</v>
+        <v>0.3017286666666667</v>
       </c>
       <c r="N15">
-        <v>0.6666090000000001</v>
+        <v>0.905186</v>
       </c>
       <c r="O15">
-        <v>0.0916355319469786</v>
+        <v>0.1111298267393892</v>
       </c>
       <c r="P15">
-        <v>0.0916355319469786</v>
+        <v>0.1111298267393892</v>
       </c>
       <c r="Q15">
-        <v>0.3626010026703334</v>
+        <v>3.128279165919556</v>
       </c>
       <c r="R15">
-        <v>3.263409024033001</v>
+        <v>28.154512493276</v>
       </c>
       <c r="S15">
-        <v>0.0125391382289745</v>
+        <v>0.04542064937366251</v>
       </c>
       <c r="T15">
-        <v>0.0125391382289745</v>
+        <v>0.0454206493736625</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.631845666666667</v>
+        <v>10.36785533333333</v>
       </c>
       <c r="H16">
-        <v>4.895537</v>
+        <v>31.103566</v>
       </c>
       <c r="I16">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="J16">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.01891066666666667</v>
+        <v>0.07860233333333334</v>
       </c>
       <c r="N16">
-        <v>0.056732</v>
+        <v>0.235807</v>
       </c>
       <c r="O16">
-        <v>0.007798675083018666</v>
+        <v>0.02895006225674629</v>
       </c>
       <c r="P16">
-        <v>0.007798675083018665</v>
+        <v>0.02895006225674629</v>
       </c>
       <c r="Q16">
-        <v>0.03085928945377778</v>
+        <v>0.8149376208624445</v>
       </c>
       <c r="R16">
-        <v>0.277733605084</v>
+        <v>7.334438587762</v>
       </c>
       <c r="S16">
-        <v>0.001067147893302043</v>
+        <v>0.01183238258971663</v>
       </c>
       <c r="T16">
-        <v>0.001067147893302043</v>
+        <v>0.01183238258971663</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.129675</v>
+        <v>0.05357233333333333</v>
       </c>
       <c r="H17">
-        <v>0.389025</v>
+        <v>0.160717</v>
       </c>
       <c r="I17">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="J17">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.105407</v>
+        <v>0.1793826666666667</v>
       </c>
       <c r="N17">
-        <v>0.316221</v>
+        <v>0.5381480000000001</v>
       </c>
       <c r="O17">
-        <v>0.04346937942302837</v>
+        <v>0.06606851409560997</v>
       </c>
       <c r="P17">
-        <v>0.04346937942302836</v>
+        <v>0.06606851409560997</v>
       </c>
       <c r="Q17">
-        <v>0.013668652725</v>
+        <v>0.00960994801288889</v>
       </c>
       <c r="R17">
-        <v>0.123017874525</v>
+        <v>0.08648953211600001</v>
       </c>
       <c r="S17">
-        <v>0.0004726769221828375</v>
+        <v>0.0001395304114632126</v>
       </c>
       <c r="T17">
-        <v>0.0004726769221828374</v>
+        <v>0.0001395304114632126</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.129675</v>
+        <v>0.05357233333333333</v>
       </c>
       <c r="H18">
-        <v>0.389025</v>
+        <v>0.160717</v>
       </c>
       <c r="I18">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="J18">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.148302999999999</v>
       </c>
       <c r="O18">
-        <v>0.8451776318294596</v>
+        <v>0.7548281205534184</v>
       </c>
       <c r="P18">
-        <v>0.8451776318294596</v>
+        <v>0.7548281205534184</v>
       </c>
       <c r="Q18">
-        <v>0.2657603971749999</v>
+        <v>0.1097929792501111</v>
       </c>
       <c r="R18">
-        <v>2.391843574574999</v>
+        <v>0.9881368132509999</v>
       </c>
       <c r="S18">
-        <v>0.009190284448811134</v>
+        <v>0.001594125124297598</v>
       </c>
       <c r="T18">
-        <v>0.009190284448811132</v>
+        <v>0.001594125124297598</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.129675</v>
+        <v>0.05357233333333333</v>
       </c>
       <c r="H19">
-        <v>0.389025</v>
+        <v>0.160717</v>
       </c>
       <c r="I19">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="J19">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.02890133333333333</v>
+        <v>0.1059526666666667</v>
       </c>
       <c r="N19">
-        <v>0.086704</v>
+        <v>0.317858</v>
       </c>
       <c r="O19">
-        <v>0.01191878171751481</v>
+        <v>0.0390234763548362</v>
       </c>
       <c r="P19">
-        <v>0.01191878171751481</v>
+        <v>0.0390234763548362</v>
       </c>
       <c r="Q19">
-        <v>0.0037477804</v>
+        <v>0.005676131576222221</v>
       </c>
       <c r="R19">
-        <v>0.0337300236</v>
+        <v>0.05108518418599999</v>
       </c>
       <c r="S19">
-        <v>0.0001296023346360322</v>
+        <v>8.241386668142185E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001296023346360322</v>
+        <v>8.241386668142185E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.129675</v>
+        <v>0.05357233333333333</v>
       </c>
       <c r="H20">
-        <v>0.389025</v>
+        <v>0.160717</v>
       </c>
       <c r="I20">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="J20">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.222203</v>
+        <v>0.3017286666666667</v>
       </c>
       <c r="N20">
-        <v>0.6666090000000001</v>
+        <v>0.905186</v>
       </c>
       <c r="O20">
-        <v>0.0916355319469786</v>
+        <v>0.1111298267393892</v>
       </c>
       <c r="P20">
-        <v>0.0916355319469786</v>
+        <v>0.1111298267393892</v>
       </c>
       <c r="Q20">
-        <v>0.028814174025</v>
+        <v>0.01616430870688889</v>
       </c>
       <c r="R20">
-        <v>0.259327566225</v>
+        <v>0.145478778362</v>
       </c>
       <c r="S20">
-        <v>0.0009964255707855555</v>
+        <v>0.0002346956135314812</v>
       </c>
       <c r="T20">
-        <v>0.0009964255707855553</v>
+        <v>0.0002346956135314811</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.129675</v>
+        <v>0.05357233333333333</v>
       </c>
       <c r="H21">
-        <v>0.389025</v>
+        <v>0.160717</v>
       </c>
       <c r="I21">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="J21">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.01891066666666667</v>
+        <v>0.07860233333333334</v>
       </c>
       <c r="N21">
-        <v>0.056732</v>
+        <v>0.235807</v>
       </c>
       <c r="O21">
-        <v>0.007798675083018666</v>
+        <v>0.02895006225674629</v>
       </c>
       <c r="P21">
-        <v>0.007798675083018665</v>
+        <v>0.02895006225674629</v>
       </c>
       <c r="Q21">
-        <v>0.0024522407</v>
+        <v>0.004210910402111112</v>
       </c>
       <c r="R21">
-        <v>0.0220701663</v>
+        <v>0.037898193619</v>
       </c>
       <c r="S21">
-        <v>8.480115852292144E-05</v>
+        <v>6.113977518434662E-05</v>
       </c>
       <c r="T21">
-        <v>8.480115852292141E-05</v>
+        <v>6.113977518434662E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.673383</v>
+        <v>8.280381</v>
       </c>
       <c r="H22">
-        <v>11.020149</v>
+        <v>24.841143</v>
       </c>
       <c r="I22">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="J22">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.105407</v>
+        <v>0.1793826666666667</v>
       </c>
       <c r="N22">
-        <v>0.316221</v>
+        <v>0.5381480000000001</v>
       </c>
       <c r="O22">
-        <v>0.04346937942302837</v>
+        <v>0.06606851409560997</v>
       </c>
       <c r="P22">
-        <v>0.04346937942302836</v>
+        <v>0.06606851409560997</v>
       </c>
       <c r="Q22">
-        <v>0.387200281881</v>
+        <v>1.485356824796</v>
       </c>
       <c r="R22">
-        <v>3.484802536929</v>
+        <v>13.368211423164</v>
       </c>
       <c r="S22">
-        <v>0.01338980813910745</v>
+        <v>0.02156644850268797</v>
       </c>
       <c r="T22">
-        <v>0.01338980813910745</v>
+        <v>0.02156644850268797</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.673383</v>
+        <v>8.280381</v>
       </c>
       <c r="H23">
-        <v>11.020149</v>
+        <v>24.841143</v>
       </c>
       <c r="I23">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="J23">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>6.148302999999999</v>
       </c>
       <c r="O23">
-        <v>0.8451776318294596</v>
+        <v>0.7548281205534184</v>
       </c>
       <c r="P23">
-        <v>0.8451776318294596</v>
+        <v>0.7548281205534184</v>
       </c>
       <c r="Q23">
-        <v>7.528357239682999</v>
+        <v>16.970097114481</v>
       </c>
       <c r="R23">
-        <v>67.75521515714699</v>
+        <v>152.730874030329</v>
       </c>
       <c r="S23">
-        <v>0.2603388059335044</v>
+        <v>0.2463951552889204</v>
       </c>
       <c r="T23">
-        <v>0.2603388059335044</v>
+        <v>0.2463951552889203</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.673383</v>
+        <v>8.280381</v>
       </c>
       <c r="H24">
-        <v>11.020149</v>
+        <v>24.841143</v>
       </c>
       <c r="I24">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="J24">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.02890133333333333</v>
+        <v>0.1059526666666667</v>
       </c>
       <c r="N24">
-        <v>0.086704</v>
+        <v>0.317858</v>
       </c>
       <c r="O24">
-        <v>0.01191878171751481</v>
+        <v>0.0390234763548362</v>
       </c>
       <c r="P24">
-        <v>0.01191878171751481</v>
+        <v>0.0390234763548362</v>
       </c>
       <c r="Q24">
-        <v>0.106165666544</v>
+        <v>0.877328447966</v>
       </c>
       <c r="R24">
-        <v>0.9554909988960001</v>
+        <v>7.895956031693999</v>
       </c>
       <c r="S24">
-        <v>0.003671324563811929</v>
+        <v>0.01273825822667257</v>
       </c>
       <c r="T24">
-        <v>0.003671324563811929</v>
+        <v>0.01273825822667257</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.673383</v>
+        <v>8.280381</v>
       </c>
       <c r="H25">
-        <v>11.020149</v>
+        <v>24.841143</v>
       </c>
       <c r="I25">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="J25">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.222203</v>
+        <v>0.3017286666666667</v>
       </c>
       <c r="N25">
-        <v>0.6666090000000001</v>
+        <v>0.905186</v>
       </c>
       <c r="O25">
-        <v>0.0916355319469786</v>
+        <v>0.1111298267393892</v>
       </c>
       <c r="P25">
-        <v>0.0916355319469786</v>
+        <v>0.1111298267393892</v>
       </c>
       <c r="Q25">
-        <v>0.8162367227490001</v>
+        <v>2.498428318622</v>
       </c>
       <c r="R25">
-        <v>7.346130504741001</v>
+        <v>22.485854867598</v>
       </c>
       <c r="S25">
-        <v>0.02822635629449744</v>
+        <v>0.03627561052787358</v>
       </c>
       <c r="T25">
-        <v>0.02822635629449744</v>
+        <v>0.03627561052787357</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.673383</v>
+        <v>8.280381</v>
       </c>
       <c r="H26">
-        <v>11.020149</v>
+        <v>24.841143</v>
       </c>
       <c r="I26">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="J26">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.01891066666666667</v>
+        <v>0.07860233333333334</v>
       </c>
       <c r="N26">
-        <v>0.056732</v>
+        <v>0.235807</v>
       </c>
       <c r="O26">
-        <v>0.007798675083018666</v>
+        <v>0.02895006225674629</v>
       </c>
       <c r="P26">
-        <v>0.007798675083018665</v>
+        <v>0.02895006225674629</v>
       </c>
       <c r="Q26">
-        <v>0.06946612145200001</v>
+        <v>0.6508572674890001</v>
       </c>
       <c r="R26">
-        <v>0.625195093068</v>
+        <v>5.857715407401</v>
       </c>
       <c r="S26">
-        <v>0.002402214259482589</v>
+        <v>0.00945003887791712</v>
       </c>
       <c r="T26">
-        <v>0.002402214259482589</v>
+        <v>0.009450038877917118</v>
       </c>
     </row>
   </sheetData>
